--- a/ExcelConfig/Spheres.xlsx
+++ b/ExcelConfig/Spheres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC62EA8-4482-471E-92B0-DB3826A23CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFA84B-D08B-4C92-ABF2-6C9E7A05EDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sphere" sheetId="1" r:id="rId1"/>
@@ -104,11 +104,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>floor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -308,7 +308,7 @@
   <autoFilter ref="A1:B3" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4ECD9E95-AD15-4B76-A92E-6901542331BF}" name="id"/>
-    <tableColumn id="3" xr3:uid="{81D8D1D4-C55B-4520-BA26-D005B0A3CA50}" name="floor"/>
+    <tableColumn id="3" xr3:uid="{81D8D1D4-C55B-4520-BA26-D005B0A3CA50}" name="terrain"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -580,7 +580,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -610,7 +610,7 @@
         <v>6001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/Spheres.xlsx
+++ b/ExcelConfig/Spheres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFA84B-D08B-4C92-ABF2-6C9E7A05EDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C24A263-2B3A-427C-BB19-22BDBB012B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,44 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>smile</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{584F697B-F77E-4B02-B74B-2F8BB2756641}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>smile:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-范围[1,1000]</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,11 +68,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>10001,10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildings_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildings_y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array&lt;string&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,21 +132,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +191,7 @@
             <v>1</v>
           </cell>
           <cell r="C2">
-            <v>1000</v>
+            <v>999</v>
           </cell>
           <cell r="D2">
             <v>1000</v>
@@ -218,10 +202,10 @@
             <v>Roofs</v>
           </cell>
           <cell r="B3">
-            <v>1001</v>
+            <v>1000</v>
           </cell>
           <cell r="C3">
-            <v>2000</v>
+            <v>1999</v>
           </cell>
           <cell r="D3">
             <v>1000</v>
@@ -232,10 +216,10 @@
             <v>Walls</v>
           </cell>
           <cell r="B4">
-            <v>2001</v>
+            <v>2000</v>
           </cell>
           <cell r="C4">
-            <v>3000</v>
+            <v>2999</v>
           </cell>
           <cell r="D4">
             <v>1000</v>
@@ -246,10 +230,10 @@
             <v>Rings</v>
           </cell>
           <cell r="B5">
-            <v>3001</v>
+            <v>3000</v>
           </cell>
           <cell r="C5">
-            <v>4000</v>
+            <v>3999</v>
           </cell>
           <cell r="D5">
             <v>1000</v>
@@ -260,10 +244,10 @@
             <v>Floors</v>
           </cell>
           <cell r="B6">
-            <v>4001</v>
+            <v>4000</v>
           </cell>
           <cell r="C6">
-            <v>5000</v>
+            <v>4999</v>
           </cell>
           <cell r="D6">
             <v>1000</v>
@@ -274,10 +258,10 @@
             <v>Terrains</v>
           </cell>
           <cell r="B7">
-            <v>5001</v>
+            <v>5000</v>
           </cell>
           <cell r="C7">
-            <v>6000</v>
+            <v>5999</v>
           </cell>
           <cell r="D7">
             <v>1000</v>
@@ -288,13 +272,27 @@
             <v>Spheres</v>
           </cell>
           <cell r="B8">
-            <v>6001</v>
+            <v>6000</v>
           </cell>
           <cell r="C8">
-            <v>7000</v>
+            <v>6999</v>
           </cell>
           <cell r="D8">
             <v>1000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Buildings</v>
+          </cell>
+          <cell r="B9">
+            <v>10001</v>
+          </cell>
+          <cell r="C9">
+            <v>20000</v>
+          </cell>
+          <cell r="D9">
+            <v>10000</v>
           </cell>
         </row>
       </sheetData>
@@ -304,13 +302,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}" name="表1" displayName="表1" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}" name="表1" displayName="表1" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3" xr:uid="{E92F6BDD-24FF-4177-878B-8FD47FC6E0D5}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4ECD9E95-AD15-4B76-A92E-6901542331BF}" name="id"/>
+    <tableColumn id="8" xr3:uid="{4A85A444-653E-48F3-8FDF-73184C2886FE}" name="level"/>
     <tableColumn id="3" xr3:uid="{81D8D1D4-C55B-4520-BA26-D005B0A3CA50}" name="terrain"/>
+    <tableColumn id="4" xr3:uid="{08B8F26E-F6BC-497C-BDE8-89D4F2ECB538}" name="buildings"/>
+    <tableColumn id="5" xr3:uid="{AFBAFB4D-AEEB-435F-9D8D-F198C0E26506}" name="buildings_x"/>
+    <tableColumn id="6" xr3:uid="{4A9A38BC-F0D6-4FAD-A78D-C058CD64CE2F}" name="buildings_y"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -576,55 +578,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f>_help!B2+ROW()-3</f>
-        <v>6001</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2" xr:uid="{2A0195CB-C8E4-4AF5-9BF6-090CBE9D070A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:F2" xr:uid="{2A0195CB-C8E4-4AF5-9BF6-090CBE9D070A}">
       <formula1>"int,string,double,bool,Array&lt;int&gt;,Array&lt;string&gt;,Array&lt;double&gt;,Array&lt;bool&gt;"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -634,7 +672,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -659,11 +697,11 @@
       </c>
       <c r="B2">
         <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$33,2,FALSE)</f>
-        <v>6001</v>
+        <v>6000</v>
       </c>
       <c r="C2">
         <f>VLOOKUP($A$2,[1]Sheet1!$A$2:$D$33,3,FALSE)</f>
-        <v>7000</v>
+        <v>6999</v>
       </c>
     </row>
   </sheetData>
